--- a/游戏开发文档/测试用例.xlsx
+++ b/游戏开发文档/测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705DD8F9-D2C9-4948-89AE-5C370FF14E2B}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAE67DD-8AE2-4703-B1AF-597497FDB6FE}"/>
   <bookViews>
-    <workbookView xWindow="3610" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3610" yWindow="4110" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="界面导航与关卡选择测试" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>用例编号</t>
   </si>
@@ -241,9 +241,6 @@
     <t>1. 放置防御塔 2. 生成敌人 3. 观察防御塔攻击行为</t>
   </si>
   <si>
-    <t>1. 防御塔正确选择最接近中心点的敌人 2. 正确生成子弹 3. 子弹正确追踪敌人 4. 敌人受到伤害</t>
-  </si>
-  <si>
     <t>TW-002</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>1. 放置防御塔 2. 累积MP直到满值 3. 观察技能释放</t>
   </si>
   <si>
-    <t>1. MP满值后自动释放技能 2. 技能效果正确应用 3. 技能释放后MP重置</t>
-  </si>
-  <si>
     <t>TW-004</t>
   </si>
   <si>
@@ -289,9 +283,6 @@
     <t>1. 开始战斗 2. 击败第一波敌人 3. 观察下一波敌人生成</t>
   </si>
   <si>
-    <t>1. 第一波敌人全部死亡后，时钟暂停 2. 点击开始后，生成下一波敌人 3. 下一波敌人生成点正确显示</t>
-  </si>
-  <si>
     <t>BP-002</t>
   </si>
   <si>
@@ -301,9 +292,6 @@
     <t>1. 进入战斗场景 2. 击败所有波次敌人</t>
   </si>
   <si>
-    <t>显示"Game Win"界面</t>
-  </si>
-  <si>
     <t>BP-003</t>
   </si>
   <si>
@@ -311,9 +299,6 @@
   </si>
   <si>
     <t>1. 进入战斗场景 2. 让多个敌人到达中心点 3. 等待生命值降至0</t>
-  </si>
-  <si>
-    <t>显示"Game Over"界面</t>
   </si>
   <si>
     <t>BP-004</t>
@@ -419,6 +404,47 @@
   </si>
   <si>
     <t>需要找个方法清理敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 防御塔正确选择最接近中心点的敌人 
+2. 正确生成子弹 
+3. 子弹正确追踪敌人 
+4. 敌人受到伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔目前选择的是自己列表中的第一个敌人，暂时没有选择算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. MP满值后自动释放技能 
+2. 技能效果正确应用 
+3. 技能释放后MP重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分防御塔点击之后不显示防御塔面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 第一波敌人全部死亡后，时钟暂停 2. 点击开始后，生成下一波敌人 3. 下一波敌人生成点正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟并未暂停，但我又觉得不暂停可能会好点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示"Game Win"界面，并且可以正常返回到关卡选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示"Game Over"界面，，并且可以正常返回到关卡选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分怪物还是会选错路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +821,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="23.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B6C51-D27B-4B36-A4B5-74605546F305}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="23.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D26BF3-0A85-4451-87D4-110101565B83}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="23.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE336F4E-3EE2-4723-8BD8-74ABE6CDFA42}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,84 +1220,87 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -914,12 +1309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B6C51-D27B-4B36-A4B5-74605546F305}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA61B4B-C97B-438C-A12B-D43B00694BF3}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -951,409 +1346,82 @@
     </row>
     <row r="2" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D26BF3-0A85-4451-87D4-110101565B83}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="23.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE336F4E-3EE2-4723-8BD8-74ABE6CDFA42}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="23.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA61B4B-C97B-438C-A12B-D43B00694BF3}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="23.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
+      <c r="F5" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1425,70 +1493,70 @@
     </row>
     <row r="2" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
